--- a/aiurt-module-system/src/main/resources/templates/device.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/device.xlsx
@@ -1,6 +1,1079 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>设备主数据模板</t>
+  </si>
+  <si>
+    <r>
+      <t>设备主数据导入模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写须知：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单次最多导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数据；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属专业：必填字段，且不能重复；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子系统名称：必填字段，且不能重复；
+3.设备类型名称：必填字段，且不能重复；
+4.设备编号：必填字段，且不能重复，根据专业、子系统、设备类型}编码+自增5位数生成；
+5.设备名称：必填字段，且不能重复；
+6.设备状态：必填字段，且不能重复；
+7.设备位置：必填字段，设备位置填写线路，站点，位置其中一级，及其父级；
+8.设备等级：必填字段，且不能重复；
+9.临时设备：必填字段，且不能重复；
+10.组件：组件非必填，如果需要添加组件，则组件五个字段必填</t>
+    </r>
+  </si>
+  <si>
+    <t>所属专业</t>
+  </si>
+  <si>
+    <t>子系统名称</t>
+  </si>
+  <si>
+    <t>设备类型名称</t>
+  </si>
+  <si>
+    <t>设备编号</t>
+  </si>
+  <si>
+    <t>设备名称</t>
+  </si>
+  <si>
+    <t>设备状态</t>
+  </si>
+  <si>
+    <t>线路</t>
+  </si>
+  <si>
+    <t>站点</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>负责班组</t>
+  </si>
+  <si>
+    <t>设备管理员</t>
+  </si>
+  <si>
+    <t>设备等级</t>
+  </si>
+  <si>
+    <t>临时设备</t>
+  </si>
+  <si>
+    <t>组件</t>
+  </si>
+  <si>
+    <t>物资类型</t>
+  </si>
+  <si>
+    <t>组件状态</t>
+  </si>
+  <si>
+    <t>组件编号</t>
+  </si>
+  <si>
+    <t>组件名称</t>
+  </si>
+  <si>
+    <r>
+      <t>物资基础数据编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物资编号</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+  </fonts>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10,39 +1083,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -121,131 +1194,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -254,6 +1356,163 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="18" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" ht="224" customHeight="1" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" ht="36.75" spans="1:18">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/aiurt-module-system/src/main/resources/templates/device.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/device.xlsx
@@ -26,8 +26,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -44,8 +43,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1.</t>
@@ -62,8 +60,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 2.</t>
@@ -80,8 +77,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 3.</t>
@@ -98,8 +94,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>10000</t>
     </r>
@@ -115,8 +110,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -133,8 +127,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1.</t>
@@ -145,14 +138,13 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>所属专业：必填字段，且不能重复；</t>
+      <t>所属专业：必填字段；</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 2.</t>
@@ -163,14 +155,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>子系统名称：必填字段，且不能重复；
-3.设备类型名称：必填字段，且不能重复；
+      <t>子系统名称：必填字段；
+3.设备类型名称：必填字段；
 4.设备编号：必填字段，且不能重复，根据专业、子系统、设备类型}编码+自增5位数生成；
-5.设备名称：必填字段，且不能重复；
-6.设备状态：必填字段，且不能重复；
+5.设备名称：必填字段；
+6.设备状态：必填字段；
 7.设备位置：必填字段，设备位置填写线路，站点，位置其中一级，及其父级；
-8.设备等级：必填字段，且不能重复；
-9.临时设备：必填字段，且不能重复；
+8.设备等级：必填字段；
+9.临时设备：必填字段；
 10.组件：组件非必填，如果需要添加组件，则组件五个字段必填</t>
     </r>
   </si>
@@ -230,6 +222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物资基础数据编号</t>
     </r>
     <r>
@@ -237,7 +235,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>-</t>
@@ -274,7 +271,6 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -291,15 +287,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -447,9 +435,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -829,48 +821,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,101 +875,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,9 +995,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,7 +1351,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1460,9 +1449,9 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="10"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" ht="36.75" spans="1:18">
+    <row r="4" ht="24.75" spans="1:18">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1488,7 +1477,7 @@
       <c r="Q4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>20</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/device.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       </rPr>
       <t>子系统名称：必填字段；
 3.设备类型名称：必填字段；
-4.设备编号：必填字段，且不能重复，根据专业、子系统、设备类型}编码+自增5位数生成；
+4.设备编号：必填字段，且不能重复；
 5.设备名称：必填字段；
 6.设备状态：必填字段；
 7.设备位置：必填字段，设备位置填写线路，站点，位置其中一级，及其父级；
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
